--- a/scada_configs/Cliente1_Scada_Config.xlsx
+++ b/scada_configs/Cliente1_Scada_Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMM-T\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C9118E6-266D-4494-8CFA-FF557B0386FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E3A48F-4402-43F0-BB4B-3A17DA1E799E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-4140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>enabled</t>
   </si>
@@ -61,51 +61,6 @@
     <t>WRITE</t>
   </si>
   <si>
-    <t>10.150.14.21</t>
-  </si>
-  <si>
-    <t>B3:0/0</t>
-  </si>
-  <si>
-    <t>B3:0/2</t>
-  </si>
-  <si>
-    <t>Micrologix</t>
-  </si>
-  <si>
-    <t>B3:0/1</t>
-  </si>
-  <si>
-    <t>N7:0</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>10.150.14.210</t>
-  </si>
-  <si>
-    <t>Boton_1</t>
-  </si>
-  <si>
-    <t>Boton_2</t>
-  </si>
-  <si>
-    <t>Luz_1</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>DINT</t>
-  </si>
-  <si>
-    <t>COMPACTLOGIX</t>
-  </si>
-  <si>
-    <t>S7-1200</t>
-  </si>
-  <si>
     <t>10.150.14.110</t>
   </si>
   <si>
@@ -128,30 +83,6 @@
   </si>
   <si>
     <t>R2</t>
-  </si>
-  <si>
-    <t>scada/customers/JVWDl4oQUFh46H1uIjaseidQhEp2/PLC/PumpCmdStart</t>
-  </si>
-  <si>
-    <t>scada/customers/JVWDl4oQUFh46H1uIjaseidQhEp2/PLC/PumpCmdStop</t>
-  </si>
-  <si>
-    <t>scada/customers/JVWDl4oQUFh46H1uIjaseidQhEp2/PLC/PumpSts</t>
-  </si>
-  <si>
-    <t>scada/customers/JVWDl4oQUFh46H1uIjaseidQhEp2/PLC/NivelTK</t>
-  </si>
-  <si>
-    <t>scada/customers/default/Micro/PumpCmdStart</t>
-  </si>
-  <si>
-    <t>scada/customers/default/Micro/PumpCmdStop</t>
-  </si>
-  <si>
-    <t>scada/customers/default/Micro/PumpSts</t>
-  </si>
-  <si>
-    <t>scada/customers/default/Micro/NivelTK</t>
   </si>
   <si>
     <t>scada/customers/Cliente1/Siemens/Partir</t>
@@ -540,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -591,13 +522,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -606,13 +537,10 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J2">
         <v>1000</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -620,13 +548,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -635,13 +563,10 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J3">
         <v>1000</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -649,13 +574,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -664,13 +589,10 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J4">
         <v>1000</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -678,243 +600,32 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J5">
-        <v>1000</v>
-      </c>
-      <c r="M5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="b">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="b">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="b">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="b">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="b">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="b">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B13" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
-      <formula1>$M$2:$M$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{2D9DB6F9-C4F0-4FE1-949A-D2599B9B0F45}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
